--- a/doc/ue_threadpool.xlsx
+++ b/doc/ue_threadpool.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
+    <sheet name="AsyncTask" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>线程池得分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,245 +30,273 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>if (bCreateTaskGraphAndThreadPools)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// initialize task graph sub-system with potential multiple threads</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("FTaskGraphInterface::Startup");</t>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Startup(FPlatformMisc::NumberOfCores());</t>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().AttachToThread(ENamedThreads::GameThread);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>TRACE_THREAD_GROUP_SCOPE("ThreadPool");</t>
+  </si>
+  <si>
+    <t>int32 NumThreadsInThreadPool = FPlatformMisc::NumberOfWorkerThreadsToSpawn();</t>
+  </si>
+  <si>
+    <t>// we are only going to give dedicated servers one pool thread</t>
+  </si>
+  <si>
+    <t>if (FPlatformProperties::IsServerOnly())</t>
+  </si>
+  <si>
+    <t>NumThreadsInThreadPool = 1;</t>
+  </si>
+  <si>
+    <t>verify(GThreadPool-&gt;Create(NumThreadsInThreadPool, StackSize * 1024, TPri_SlightlyBelowNormal));</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GThreadPool</t>
+  </si>
+  <si>
+    <t>TRACE_THREAD_GROUP_SCOPE("BackgroundThreadPool");</t>
+  </si>
+  <si>
+    <t>GBackgroundPriorityThreadPool = FQueuedThreadPool::Allocate();</t>
+  </si>
+  <si>
+    <t>int32 NumThreadsInThreadPool = 2;</t>
+  </si>
+  <si>
+    <t>verify(GBackgroundPriorityThreadPool-&gt;Create(NumThreadsInThreadPool, StackSize * 1024, TPri_Lowest));</t>
+  </si>
+  <si>
+    <t>GBackgroundPriorityThreadPool</t>
+  </si>
+  <si>
+    <t>GLargeThreadPool</t>
+  </si>
+  <si>
+    <t>只存在与编辑器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>TRACE_THREAD_GROUP_SCOPE("LargeThreadPool");</t>
+  </si>
+  <si>
+    <t>// when we are in the editor we like to do things like build lighting and such</t>
+  </si>
+  <si>
+    <t>// this thread pool can be used for those purposes</t>
+  </si>
+  <si>
+    <t>GLargeThreadPool = FQueuedThreadPool::Allocate();</t>
+  </si>
+  <si>
+    <t>int32 NumThreadsInLargeThreadPool = FMath::Max(FPlatformMisc::NumberOfCoresIncludingHyperthreads() - 2, 2);</t>
+  </si>
+  <si>
+    <t>verify(GLargeThreadPool-&gt;Create(NumThreadsInLargeThreadPool, StackSize * 1024));</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>TaskGraph内部实现得线程池，如果不支持多线程，则就是加得FakeThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于Task投递处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在投递时调用：void StartBackgroundTask(FQueuedThreadPool* InQueuedPool = GThreadPool)进行投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数默认时GThreadPool，可以传入GBackgroundPriorityThreadPool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当传入NULL得时候，则直接就在主线程操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：FAsyncCancelIORequestsTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责TextureStream得In和Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承自IQueuedWork得任何AsyncTask（直接调用Task得OnWork）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以指定执行得线程类型：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatsThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHIThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualRenderingThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnyThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以投给指定得逻辑线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GThreadPool = FQueuedThreadPool::Allocate();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIOThreadPool</t>
+  </si>
+  <si>
+    <t>if (FPlatformProcess::SupportsMultithreading())</t>
+  </si>
+  <si>
+    <t>TRACE_THREAD_GROUP_SCOPE("IOThreadPool");</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("GIOThreadPool-&gt;Create");</t>
+  </si>
+  <si>
+    <t>GIOThreadPool = FQueuedThreadPool::Allocate();</t>
+  </si>
+  <si>
+    <t>int32 NumThreadsInThreadPool = FPlatformMisc::NumberOfIOWorkerThreadsToSpawn();</t>
+  </si>
+  <si>
+    <t>NumThreadsInThreadPool = 2;</t>
+  </si>
+  <si>
+    <t>verify(GIOThreadPool-&gt;Create(NumThreadsInThreadPool, 96 * 1024, TPri_AboveNormal));</t>
+  </si>
+  <si>
+    <t>FileLoadingThreadPool = FQueuedThreadPool::Allocate();</t>
+  </si>
+  <si>
+    <t>FileLoadingThreadPool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专职进行SOUND File得加载线程池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSoundFileManager::Init(FSoundFileManagerSettings&amp; InSettings)</t>
+  </si>
+  <si>
+    <t>check(AudioModule != nullptr);</t>
+  </si>
+  <si>
+    <t>Settings = InSettings;</t>
+  </si>
+  <si>
+    <t>// Initialize sound file manager data</t>
+  </si>
+  <si>
+    <t>SoundFileHandles.Init(FSoundFileHandle(), InSettings.MaxNumberOfLoadedSounds);</t>
+  </si>
+  <si>
+    <t>SoundFileData.Init(nullptr, InSettings.MaxNumberOfLoadedSounds);</t>
+  </si>
+  <si>
+    <t>// Initialize the sound file loading pool</t>
+  </si>
+  <si>
+    <t>FileLoadingThreadPool-&gt;Create(Settings.NumLoadingThreads, (32 * 1024), Settings.LoadingThreadPriority);</t>
+  </si>
+  <si>
+    <t>！！！默认创建2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程名字：TaskGraphNP 0等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程名字：PoolThread 0等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (FParse::Param(FCommandLine::Get(), TEXT("dsreducethread")))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！N个线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAutoDeleteAsyncTask</t>
+  </si>
+  <si>
+    <t>针对线程池得AsyncTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全不需要维护得任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsyncTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要维护对象得任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能临时对象，因为析构函数回释放数据，所以需要是类得对象，每次还需要判断状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TaskGraph</t>
-  </si>
-  <si>
-    <t>if (bCreateTaskGraphAndThreadPools)</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>// initialize task graph sub-system with potential multiple threads</t>
-  </si>
-  <si>
-    <t>SCOPED_BOOT_TIMING("FTaskGraphInterface::Startup");</t>
-  </si>
-  <si>
-    <t>FTaskGraphInterface::Startup(FPlatformMisc::NumberOfCores());</t>
-  </si>
-  <si>
-    <t>FTaskGraphInterface::Get().AttachToThread(ENamedThreads::GameThread);</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>TRACE_THREAD_GROUP_SCOPE("ThreadPool");</t>
-  </si>
-  <si>
-    <t>int32 NumThreadsInThreadPool = FPlatformMisc::NumberOfWorkerThreadsToSpawn();</t>
-  </si>
-  <si>
-    <t>// we are only going to give dedicated servers one pool thread</t>
-  </si>
-  <si>
-    <t>if (FPlatformProperties::IsServerOnly())</t>
-  </si>
-  <si>
-    <t>NumThreadsInThreadPool = 1;</t>
-  </si>
-  <si>
-    <t>verify(GThreadPool-&gt;Create(NumThreadsInThreadPool, StackSize * 1024, TPri_SlightlyBelowNormal));</t>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GThreadPool</t>
-  </si>
-  <si>
-    <t>TRACE_THREAD_GROUP_SCOPE("BackgroundThreadPool");</t>
-  </si>
-  <si>
-    <t>GBackgroundPriorityThreadPool = FQueuedThreadPool::Allocate();</t>
-  </si>
-  <si>
-    <t>int32 NumThreadsInThreadPool = 2;</t>
-  </si>
-  <si>
-    <t>verify(GBackgroundPriorityThreadPool-&gt;Create(NumThreadsInThreadPool, StackSize * 1024, TPri_Lowest));</t>
-  </si>
-  <si>
-    <t>GBackgroundPriorityThreadPool</t>
-  </si>
-  <si>
-    <t>GLargeThreadPool</t>
-  </si>
-  <si>
-    <t>只存在与编辑器模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#if WITH_EDITOR</t>
-  </si>
-  <si>
-    <t>TRACE_THREAD_GROUP_SCOPE("LargeThreadPool");</t>
-  </si>
-  <si>
-    <t>// when we are in the editor we like to do things like build lighting and such</t>
-  </si>
-  <si>
-    <t>// this thread pool can be used for those purposes</t>
-  </si>
-  <si>
-    <t>GLargeThreadPool = FQueuedThreadPool::Allocate();</t>
-  </si>
-  <si>
-    <t>int32 NumThreadsInLargeThreadPool = FMath::Max(FPlatformMisc::NumberOfCoresIncludingHyperthreads() - 2, 2);</t>
-  </si>
-  <si>
-    <t>verify(GLargeThreadPool-&gt;Create(NumThreadsInLargeThreadPool, StackSize * 1024));</t>
-  </si>
-  <si>
-    <t>#endif</t>
-  </si>
-  <si>
-    <t>TaskGraph内部实现得线程池，如果不支持多线程，则就是加得FakeThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用于Task投递处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在投递时调用：void StartBackgroundTask(FQueuedThreadPool* InQueuedPool = GThreadPool)进行投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数默认时GThreadPool，可以传入GBackgroundPriorityThreadPool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当传入NULL得时候，则直接就在主线程操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：FAsyncCancelIORequestsTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责TextureStream得In和Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继承自IQueuedWork得任何AsyncTask（直接调用Task得OnWork）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以指定执行得线程类型：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatsThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RHIThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActualRenderingThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnyThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以投给指定得逻辑线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GThreadPool = FQueuedThreadPool::Allocate();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIOThreadPool</t>
-  </si>
-  <si>
-    <t>if (FPlatformProcess::SupportsMultithreading())</t>
-  </si>
-  <si>
-    <t>TRACE_THREAD_GROUP_SCOPE("IOThreadPool");</t>
-  </si>
-  <si>
-    <t>SCOPED_BOOT_TIMING("GIOThreadPool-&gt;Create");</t>
-  </si>
-  <si>
-    <t>GIOThreadPool = FQueuedThreadPool::Allocate();</t>
-  </si>
-  <si>
-    <t>int32 NumThreadsInThreadPool = FPlatformMisc::NumberOfIOWorkerThreadsToSpawn();</t>
-  </si>
-  <si>
-    <t>NumThreadsInThreadPool = 2;</t>
-  </si>
-  <si>
-    <t>verify(GIOThreadPool-&gt;Create(NumThreadsInThreadPool, 96 * 1024, TPri_AboveNormal));</t>
-  </si>
-  <si>
-    <t>FileLoadingThreadPool = FQueuedThreadPool::Allocate();</t>
-  </si>
-  <si>
-    <t>FileLoadingThreadPool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专职进行SOUND File得加载线程池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FSoundFileManager::Init(FSoundFileManagerSettings&amp; InSettings)</t>
-  </si>
-  <si>
-    <t>check(AudioModule != nullptr);</t>
-  </si>
-  <si>
-    <t>Settings = InSettings;</t>
-  </si>
-  <si>
-    <t>// Initialize sound file manager data</t>
-  </si>
-  <si>
-    <t>SoundFileHandles.Init(FSoundFileHandle(), InSettings.MaxNumberOfLoadedSounds);</t>
-  </si>
-  <si>
-    <t>SoundFileData.Init(nullptr, InSettings.MaxNumberOfLoadedSounds);</t>
-  </si>
-  <si>
-    <t>// Initialize the sound file loading pool</t>
-  </si>
-  <si>
-    <t>FileLoadingThreadPool-&gt;Create(Settings.NumLoadingThreads, (32 * 1024), Settings.LoadingThreadPriority);</t>
-  </si>
-  <si>
-    <t>！！！默认创建2个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程名字：TaskGraphNP 0等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程名字：PoolThread 0等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (FParse::Param(FCommandLine::Get(), TEXT("dsreducethread")))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！N个线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskGraph完全是给TaskGraph系统用的，可以投给指定得线程或ANY线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,82 +683,82 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
@@ -737,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
@@ -745,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U14" s="3"/>
     </row>
@@ -757,27 +786,27 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -789,10 +818,10 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -804,10 +833,10 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -819,7 +848,7 @@
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="N20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -831,7 +860,7 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -844,7 +873,7 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -857,33 +886,33 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" t="s">
         <v>38</v>
-      </c>
-      <c r="R23" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
@@ -891,27 +920,27 @@
         <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -923,10 +952,10 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -938,10 +967,10 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -953,10 +982,10 @@
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -968,7 +997,7 @@
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -981,7 +1010,7 @@
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -994,23 +1023,23 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T39" t="s">
         <v>38</v>
-      </c>
-      <c r="T39" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.2">
@@ -1018,24 +1047,24 @@
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -1047,10 +1076,10 @@
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -1062,10 +1091,10 @@
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -1077,10 +1106,10 @@
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -1092,7 +1121,7 @@
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -1105,7 +1134,7 @@
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
@@ -1118,25 +1147,25 @@
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="S54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W54" t="s">
         <v>38</v>
-      </c>
-      <c r="W54" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.2">
@@ -1144,37 +1173,37 @@
         <v>5</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="5:26" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -1186,10 +1215,10 @@
     </row>
     <row r="66" spans="5:26" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -1201,10 +1230,10 @@
     </row>
     <row r="67" spans="5:26" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -1216,10 +1245,10 @@
     </row>
     <row r="68" spans="5:26" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -1231,7 +1260,7 @@
     </row>
     <row r="69" spans="5:26" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
@@ -1244,7 +1273,7 @@
     </row>
     <row r="70" spans="5:26" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
@@ -1257,53 +1286,53 @@
     </row>
     <row r="71" spans="5:26" x14ac:dyDescent="0.2">
       <c r="H71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W71" t="s">
         <v>38</v>
-      </c>
-      <c r="W71" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="73" spans="5:26" x14ac:dyDescent="0.2">
       <c r="H73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="5:26" x14ac:dyDescent="0.2">
       <c r="H74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="5:26" x14ac:dyDescent="0.2">
       <c r="I75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="5:26" x14ac:dyDescent="0.2">
       <c r="H76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="5:26" x14ac:dyDescent="0.2">
       <c r="G77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="5:26" x14ac:dyDescent="0.2">
       <c r="G78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="5:26" x14ac:dyDescent="0.2">
       <c r="F79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.2">
@@ -1311,76 +1340,135 @@
         <v>6</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D82" s="4"/>
       <c r="F82" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F95" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E97" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
